--- a/Code/Results/Cases/Case_4_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.388536962638625</v>
+        <v>1.741367521909297</v>
       </c>
       <c r="C2">
-        <v>0.4464146159311042</v>
+        <v>0.2277835707313614</v>
       </c>
       <c r="D2">
-        <v>0.265400159907486</v>
+        <v>0.5176247577602169</v>
       </c>
       <c r="E2">
-        <v>0.06239251006532953</v>
+        <v>0.174230358010373</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4540230158932133</v>
+        <v>0.9400624967631472</v>
       </c>
       <c r="H2">
-        <v>0.3663800619804789</v>
+        <v>0.988284131320242</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.029946073501538</v>
+        <v>0.07360246527502845</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3892484230496649</v>
+        <v>0.4269343701549246</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.677321736821852</v>
+        <v>3.898970018771109</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.94936985211524</v>
+        <v>1.608189009190994</v>
       </c>
       <c r="C3">
-        <v>0.4059474701954855</v>
+        <v>0.2141702314516181</v>
       </c>
       <c r="D3">
-        <v>0.251311040308849</v>
+        <v>0.5175166576501056</v>
       </c>
       <c r="E3">
-        <v>0.0629254104538326</v>
+        <v>0.1755950638993848</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4432052440592003</v>
+        <v>0.948389781801076</v>
       </c>
       <c r="H3">
-        <v>0.3694975109216685</v>
+        <v>0.9975914093568718</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03072268461267313</v>
+        <v>0.07408964589558664</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3471177408488018</v>
+        <v>0.4165757608473797</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.660426563306629</v>
+        <v>3.935756533715278</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.6803219598753</v>
+        <v>1.526517907096661</v>
       </c>
       <c r="C4">
-        <v>0.381157120365998</v>
+        <v>0.2057972729158735</v>
       </c>
       <c r="D4">
-        <v>0.2430531042432023</v>
+        <v>0.5176918674961115</v>
       </c>
       <c r="E4">
-        <v>0.06336168842816292</v>
+        <v>0.176506218026514</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4380518045194179</v>
+        <v>0.9542189710910591</v>
       </c>
       <c r="H4">
-        <v>0.3722941062251834</v>
+        <v>1.003823009224973</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03122512507530928</v>
+        <v>0.07440738117021528</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3214867161632355</v>
+        <v>0.4103499208600709</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.655043878158196</v>
+        <v>3.960931741061003</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.570792691911834</v>
+        <v>1.493263847576486</v>
       </c>
       <c r="C5">
-        <v>0.3710658391945003</v>
+        <v>0.2023818992774409</v>
       </c>
       <c r="D5">
-        <v>0.2397819025066781</v>
+        <v>0.5178240902226179</v>
       </c>
       <c r="E5">
-        <v>0.06356608043407874</v>
+        <v>0.1768959484964387</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4363062033552083</v>
+        <v>0.9567742450055334</v>
       </c>
       <c r="H5">
-        <v>0.3736467302045767</v>
+        <v>1.006492406109892</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0314362621413613</v>
+        <v>0.07454154950090164</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3110958639925201</v>
+        <v>0.4078468370327641</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.654044585666185</v>
+        <v>3.97184106891747</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.552610918395828</v>
+        <v>1.487743766240783</v>
       </c>
       <c r="C6">
-        <v>0.3693907629434818</v>
+        <v>0.2018145863943062</v>
       </c>
       <c r="D6">
-        <v>0.2392442619088087</v>
+        <v>0.5178497214986209</v>
       </c>
       <c r="E6">
-        <v>0.06360160315975349</v>
+        <v>0.1769617764123783</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4360371946081614</v>
+        <v>0.957209399979881</v>
       </c>
       <c r="H6">
-        <v>0.3738839444547253</v>
+        <v>1.006943507036908</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03147170578365532</v>
+        <v>0.07456411153845988</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3093735724068267</v>
+        <v>0.4074332611992588</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.653949060997888</v>
+        <v>3.973691809506377</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.678844417669211</v>
+        <v>1.526069316669464</v>
       </c>
       <c r="C7">
-        <v>0.3810209854500783</v>
+        <v>0.2057512250891307</v>
       </c>
       <c r="D7">
-        <v>0.243008613347115</v>
+        <v>0.5176934043261952</v>
       </c>
       <c r="E7">
-        <v>0.0633643382644582</v>
+        <v>0.1765113994330694</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4380268530353248</v>
+        <v>0.9542527046273932</v>
       </c>
       <c r="H7">
-        <v>0.3723114972446027</v>
+        <v>1.003858483416749</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03122794673819662</v>
+        <v>0.0744091716131754</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3213463701340231</v>
+        <v>0.4103160254732074</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.655025644201785</v>
+        <v>3.961076236111339</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.236961075238185</v>
+        <v>1.695427852499733</v>
       </c>
       <c r="C8">
-        <v>0.4324477382981229</v>
+        <v>0.2230928212405558</v>
       </c>
       <c r="D8">
-        <v>0.2604577201661868</v>
+        <v>0.5175373878271756</v>
       </c>
       <c r="E8">
-        <v>0.06255310787897805</v>
+        <v>0.1746857216922333</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4499717711512972</v>
+        <v>0.9427849381505098</v>
       </c>
       <c r="H8">
-        <v>0.3672662894734913</v>
+        <v>0.9913859949572696</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03020850618634974</v>
+        <v>0.0737665900633937</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3746689470212061</v>
+        <v>0.4233349471945473</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.670422777734302</v>
+        <v>3.911116490138369</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.33827835066711</v>
+        <v>2.02826327416949</v>
       </c>
       <c r="C9">
-        <v>0.5339096666354521</v>
+        <v>0.2569758062508072</v>
       </c>
       <c r="D9">
-        <v>0.298024108282263</v>
+        <v>0.5191455953251563</v>
       </c>
       <c r="E9">
-        <v>0.06186696183756268</v>
+        <v>0.1716858302260196</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4861599321058208</v>
+        <v>0.9259917476473163</v>
       </c>
       <c r="H9">
-        <v>0.3648012416337707</v>
+        <v>0.9710292684470545</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02841479360970833</v>
+        <v>0.07265363752805243</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.481397724785424</v>
+        <v>0.4499240255853607</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.743130208767269</v>
+        <v>3.833708764362399</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.154776925339604</v>
+        <v>2.273159735430852</v>
       </c>
       <c r="C10">
-        <v>0.6090846716994918</v>
+        <v>0.2817829649070234</v>
       </c>
       <c r="D10">
-        <v>0.328011306434874</v>
+        <v>0.5214913145313318</v>
       </c>
       <c r="E10">
-        <v>0.06197227665739113</v>
+        <v>0.1698346148322685</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5219416245660824</v>
+        <v>0.917143365231226</v>
       </c>
       <c r="H10">
-        <v>0.3681517593185788</v>
+        <v>0.9585745649043531</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02722555863632969</v>
+        <v>0.0719250060335721</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5615551383293962</v>
+        <v>0.4700972468479563</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.826787666664785</v>
+        <v>3.789412973155748</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.528598599699535</v>
+        <v>2.384633288481552</v>
       </c>
       <c r="C11">
-        <v>0.6434838850633184</v>
+        <v>0.2930474080404508</v>
       </c>
       <c r="D11">
-        <v>0.3422545178656407</v>
+        <v>0.5228107115820819</v>
       </c>
       <c r="E11">
-        <v>0.06216634102446683</v>
+        <v>0.1690688625677179</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.540555512208698</v>
+        <v>0.9138795819521306</v>
       </c>
       <c r="H11">
-        <v>0.3709489734038698</v>
+        <v>0.9534519602173361</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02671329107666764</v>
+        <v>0.07161273302147997</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5985025144599803</v>
+        <v>0.4794117624662704</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.872450339046992</v>
+        <v>3.772001065086926</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.670568294934071</v>
+        <v>2.426853563228178</v>
       </c>
       <c r="C12">
-        <v>0.6565446020847219</v>
+        <v>0.2973097878531519</v>
       </c>
       <c r="D12">
-        <v>0.3477420338675188</v>
+        <v>0.5233465566171844</v>
       </c>
       <c r="E12">
-        <v>0.0622620912863372</v>
+        <v>0.1687898597026898</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5479708577489077</v>
+        <v>0.91275346221353</v>
       </c>
       <c r="H12">
-        <v>0.372205087042019</v>
+        <v>0.9515902834988736</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02652351561765975</v>
+        <v>0.07149723185248646</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6125722348784279</v>
+        <v>0.4829585504150344</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.890929553556958</v>
+        <v>3.765802116040106</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.639973140865152</v>
+        <v>2.417760366598657</v>
       </c>
       <c r="C13">
-        <v>0.6537301171056527</v>
+        <v>0.2963919557170698</v>
       </c>
       <c r="D13">
-        <v>0.3465558984924826</v>
+        <v>0.5232295430294585</v>
       </c>
       <c r="E13">
-        <v>0.06224045880857787</v>
+        <v>0.1688494602141066</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5463570081878544</v>
+        <v>0.9129911036424119</v>
       </c>
       <c r="H13">
-        <v>0.3719255729920548</v>
+        <v>0.9519877527614824</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02656419863065196</v>
+        <v>0.07152198493703921</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6095384232610854</v>
+        <v>0.4821938184728509</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.886895322325216</v>
+        <v>3.767119610049889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.540269876892864</v>
+        <v>2.388106635204622</v>
       </c>
       <c r="C14">
-        <v>0.6445576739884302</v>
+        <v>0.2933981427143522</v>
       </c>
       <c r="D14">
-        <v>0.3427040525500331</v>
+        <v>0.5228540703839855</v>
       </c>
       <c r="E14">
-        <v>0.06217376482295656</v>
+        <v>0.1690456890278664</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.541158044186588</v>
+        <v>0.9137847329527204</v>
       </c>
       <c r="H14">
-        <v>0.3710482860565634</v>
+        <v>0.9532972326026226</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0266975933031226</v>
+        <v>0.07160317561108087</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5996584100870308</v>
+        <v>0.4797031675462335</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.873946266055697</v>
+        <v>3.771483161770021</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.479254445052106</v>
+        <v>2.369943799541829</v>
       </c>
       <c r="C15">
-        <v>0.6389439488623623</v>
+        <v>0.2915639182215841</v>
       </c>
       <c r="D15">
-        <v>0.3403571453899019</v>
+        <v>0.5226287972759422</v>
       </c>
       <c r="E15">
-        <v>0.0621358505764924</v>
+        <v>0.1691673132302967</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5380222315321959</v>
+        <v>0.9142851629537461</v>
       </c>
       <c r="H15">
-        <v>0.3705369892259824</v>
+        <v>0.954109504615559</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02677985199823141</v>
+        <v>0.07165326509021774</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5936171274891677</v>
+        <v>0.4781801161404218</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.866172191003869</v>
+        <v>3.774207369828105</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.130400583557957</v>
+        <v>2.265875870509944</v>
       </c>
       <c r="C16">
-        <v>0.6068411185479192</v>
+        <v>0.2810463714997411</v>
       </c>
       <c r="D16">
-        <v>0.3270932078791589</v>
+        <v>0.5214101605502748</v>
       </c>
       <c r="E16">
-        <v>0.06196263949767022</v>
+        <v>0.1698861943988597</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5207747490444206</v>
+        <v>0.9173720094053266</v>
       </c>
       <c r="H16">
-        <v>0.3679957273422332</v>
+        <v>0.9589202716220342</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02725962109275137</v>
+        <v>0.07194579909449317</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5591510233095391</v>
+        <v>0.4694912728896554</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.823964429364224</v>
+        <v>3.790606053530524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.917049059401336</v>
+        <v>2.202049610652296</v>
       </c>
       <c r="C17">
-        <v>0.5872024850909838</v>
+        <v>0.2745887581474733</v>
       </c>
       <c r="D17">
-        <v>0.3191154390468398</v>
+        <v>0.5207271447165738</v>
       </c>
       <c r="E17">
-        <v>0.06189467174120011</v>
+        <v>0.1703467577996509</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5108135157717442</v>
+        <v>0.9194609261275986</v>
       </c>
       <c r="H17">
-        <v>0.3667722894626735</v>
+        <v>0.9620106549072034</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02756135447387997</v>
+        <v>0.07213016659250115</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5381371917539468</v>
+        <v>0.4641960487017514</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.800084094462335</v>
+        <v>3.80136805414304</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.794555717634921</v>
+        <v>2.165345054775628</v>
       </c>
       <c r="C18">
-        <v>0.5759254946332533</v>
+        <v>0.2708726005736537</v>
       </c>
       <c r="D18">
-        <v>0.3145830163226009</v>
+        <v>0.5203580452797638</v>
       </c>
       <c r="E18">
-        <v>0.06186925561799406</v>
+        <v>0.1706188511508984</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5053020384912088</v>
+        <v>0.9207340625498261</v>
       </c>
       <c r="H18">
-        <v>0.3661875370434871</v>
+        <v>0.9638392782941878</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02773760184297203</v>
+        <v>0.07223801622168224</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5260955046144602</v>
+        <v>0.4611633410971336</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.787058670708433</v>
+        <v>3.807815783819933</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.753117535743286</v>
+        <v>2.152918728915665</v>
       </c>
       <c r="C19">
-        <v>0.5721103404173107</v>
+        <v>0.2696140541178522</v>
       </c>
       <c r="D19">
-        <v>0.3130578490971203</v>
+        <v>0.5202371561699692</v>
       </c>
       <c r="E19">
-        <v>0.06186296274971959</v>
+        <v>0.1707122124400744</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5034724861578326</v>
+        <v>0.9211774203872238</v>
       </c>
       <c r="H19">
-        <v>0.3660095742329048</v>
+        <v>0.9644671967232483</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02779773730096302</v>
+        <v>0.0722748427652089</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5220258464385807</v>
+        <v>0.4601387515141937</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.782767670347909</v>
+        <v>3.810043112899479</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.939737369055081</v>
+        <v>2.208843356143973</v>
       </c>
       <c r="C20">
-        <v>0.5892910846582708</v>
+        <v>0.2752763817343293</v>
       </c>
       <c r="D20">
-        <v>0.3199588202421921</v>
+        <v>0.5207973950228677</v>
       </c>
       <c r="E20">
-        <v>0.06190048276428328</v>
+        <v>0.1702969860418868</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5118511334293174</v>
+        <v>0.9192311399002904</v>
       </c>
       <c r="H20">
-        <v>0.3668901204554373</v>
+        <v>0.9616763876206704</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02752895462243998</v>
+        <v>0.07211035347496342</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5403694385041291</v>
+        <v>0.4647583939948561</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.802552066382873</v>
+        <v>3.800195743000586</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.569543406656578</v>
+        <v>2.39681646488873</v>
       </c>
       <c r="C21">
-        <v>0.6472508610474677</v>
+        <v>0.2942775877637587</v>
       </c>
       <c r="D21">
-        <v>0.3438328225204685</v>
+        <v>0.5229633733720647</v>
       </c>
       <c r="E21">
-        <v>0.06219273988544316</v>
+        <v>0.1689877542146956</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5426748980984257</v>
+        <v>0.9135486422119499</v>
       </c>
       <c r="H21">
-        <v>0.3713005079995071</v>
+        <v>0.9529104855056687</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02665829715861712</v>
+        <v>0.07157925338277416</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6025582018173878</v>
+        <v>0.4804342022538179</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.877716696646075</v>
+        <v>3.770190766381603</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.983592374535419</v>
+        <v>2.519711374222254</v>
       </c>
       <c r="C22">
-        <v>0.6853348015588949</v>
+        <v>0.3066770771737026</v>
       </c>
       <c r="D22">
-        <v>0.359987145020952</v>
+        <v>0.5245900416631315</v>
       </c>
       <c r="E22">
-        <v>0.06251415477427891</v>
+        <v>0.1681960369269433</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.564973273447464</v>
+        <v>0.9104749703953274</v>
       </c>
       <c r="H22">
-        <v>0.3753376776589334</v>
+        <v>0.9476369570754457</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02611384750669821</v>
+        <v>0.0712481728853831</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6436647543149974</v>
+        <v>0.4907932995716777</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.933813364842848</v>
+        <v>3.752880950242314</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.762360078880135</v>
+        <v>2.454116795484424</v>
       </c>
       <c r="C23">
-        <v>0.6649880955157528</v>
+        <v>0.3000610564645001</v>
       </c>
       <c r="D23">
-        <v>0.3513122505793831</v>
+        <v>0.5237025661143946</v>
       </c>
       <c r="E23">
-        <v>0.06233024116938424</v>
+        <v>0.1686127445588976</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5528644068587738</v>
+        <v>0.9120567669398127</v>
       </c>
       <c r="H23">
-        <v>0.3730724515408781</v>
+        <v>0.9504098456652059</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02640215413951275</v>
+        <v>0.07142341349889136</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6216798995466775</v>
+        <v>0.485254086406357</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.903202528426561</v>
+        <v>3.761908804002871</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.929479474449352</v>
+        <v>2.205771934751908</v>
       </c>
       <c r="C24">
-        <v>0.5883467870856975</v>
+        <v>0.2749655182712161</v>
       </c>
       <c r="D24">
-        <v>0.319577359635872</v>
+        <v>0.5207655614205891</v>
       </c>
       <c r="E24">
-        <v>0.06189781314765064</v>
+        <v>0.1703194650847628</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5113813579515067</v>
+        <v>0.9193348014067482</v>
       </c>
       <c r="H24">
-        <v>0.3668364806248832</v>
+        <v>0.9618273481301998</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02754359395189354</v>
+        <v>0.07211930520854715</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5393601175621399</v>
+        <v>0.4645041215809442</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.801434111426943</v>
+        <v>3.800724933435049</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.039295691603229</v>
+        <v>1.938153237023187</v>
       </c>
       <c r="C25">
-        <v>0.5063705999103831</v>
+        <v>0.2478239885094808</v>
       </c>
       <c r="D25">
-        <v>0.2874686354956282</v>
+        <v>0.5185058942153091</v>
       </c>
       <c r="E25">
-        <v>0.0619499828004777</v>
+        <v>0.1724353567655914</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4748637003639971</v>
+        <v>0.9299232195822924</v>
       </c>
       <c r="H25">
-        <v>0.3646101847439525</v>
+        <v>0.9760970936162607</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02887771722473342</v>
+        <v>0.07293903516632305</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4522512035498494</v>
+        <v>0.442618369632342</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.718481709901255</v>
+        <v>3.852444053325144</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.741367521909297</v>
+        <v>3.388536962638511</v>
       </c>
       <c r="C2">
-        <v>0.2277835707313614</v>
+        <v>0.4464146159313316</v>
       </c>
       <c r="D2">
-        <v>0.5176247577602169</v>
+        <v>0.2654001599075997</v>
       </c>
       <c r="E2">
-        <v>0.174230358010373</v>
+        <v>0.06239251006533486</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9400624967631472</v>
+        <v>0.4540230158931848</v>
       </c>
       <c r="H2">
-        <v>0.988284131320242</v>
+        <v>0.3663800619804789</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07360246527502845</v>
+        <v>0.02994607350153</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4269343701549246</v>
+        <v>0.3892484230496223</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.898970018771109</v>
+        <v>1.677321736821881</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.608189009190994</v>
+        <v>2.949369852115467</v>
       </c>
       <c r="C3">
-        <v>0.2141702314516181</v>
+        <v>0.4059474701955992</v>
       </c>
       <c r="D3">
-        <v>0.5175166576501056</v>
+        <v>0.2513110403088632</v>
       </c>
       <c r="E3">
-        <v>0.1755950638993848</v>
+        <v>0.06292541045382016</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.948389781801076</v>
+        <v>0.4432052440592074</v>
       </c>
       <c r="H3">
-        <v>0.9975914093568718</v>
+        <v>0.3694975109216685</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07408964589558664</v>
+        <v>0.03072268461274597</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4165757608473797</v>
+        <v>0.3471177408488444</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.935756533715278</v>
+        <v>1.660426563306629</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.526517907096661</v>
+        <v>2.6803219598753</v>
       </c>
       <c r="C4">
-        <v>0.2057972729158735</v>
+        <v>0.3811571203657422</v>
       </c>
       <c r="D4">
-        <v>0.5176918674961115</v>
+        <v>0.2430531042434154</v>
       </c>
       <c r="E4">
-        <v>0.176506218026514</v>
+        <v>0.06336168842816647</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9542189710910591</v>
+        <v>0.4380518045194748</v>
       </c>
       <c r="H4">
-        <v>1.003823009224973</v>
+        <v>0.3722941062251905</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07440738117021528</v>
+        <v>0.03122512507521868</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4103499208600709</v>
+        <v>0.3214867161632498</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.960931741061003</v>
+        <v>1.655043878158224</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.493263847576486</v>
+        <v>2.570792691911663</v>
       </c>
       <c r="C5">
-        <v>0.2023818992774409</v>
+        <v>0.3710658391940456</v>
       </c>
       <c r="D5">
-        <v>0.5178240902226179</v>
+        <v>0.239781902506806</v>
       </c>
       <c r="E5">
-        <v>0.1768959484964387</v>
+        <v>0.06356608043406986</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9567742450055334</v>
+        <v>0.4363062033552794</v>
       </c>
       <c r="H5">
-        <v>1.006492406109892</v>
+        <v>0.3736467302045767</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07454154950090164</v>
+        <v>0.03143626214144035</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4078468370327641</v>
+        <v>0.3110958639925201</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.97184106891747</v>
+        <v>1.65404458566627</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.487743766240783</v>
+        <v>2.552610918395828</v>
       </c>
       <c r="C6">
-        <v>0.2018145863943062</v>
+        <v>0.3693907629434818</v>
       </c>
       <c r="D6">
-        <v>0.5178497214986209</v>
+        <v>0.239244261908695</v>
       </c>
       <c r="E6">
-        <v>0.1769617764123783</v>
+        <v>0.0636016031597606</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.957209399979881</v>
+        <v>0.4360371946081827</v>
       </c>
       <c r="H6">
-        <v>1.006943507036908</v>
+        <v>0.3738839444547253</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07456411153845988</v>
+        <v>0.03147170578367042</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4074332611992588</v>
+        <v>0.309373572406713</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.973691809506377</v>
+        <v>1.653949060997903</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.526069316669464</v>
+        <v>2.678844417669211</v>
       </c>
       <c r="C7">
-        <v>0.2057512250891307</v>
+        <v>0.3810209854505899</v>
       </c>
       <c r="D7">
-        <v>0.5176934043261952</v>
+        <v>0.2430086133470724</v>
       </c>
       <c r="E7">
-        <v>0.1765113994330694</v>
+        <v>0.06336433826447241</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9542527046273932</v>
+        <v>0.438026853035332</v>
       </c>
       <c r="H7">
-        <v>1.003858483416749</v>
+        <v>0.3723114972446027</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0744091716131754</v>
+        <v>0.03122794673819662</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4103160254732074</v>
+        <v>0.3213463701339379</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.961076236111339</v>
+        <v>1.6550256442018</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.695427852499733</v>
+        <v>3.236961075238071</v>
       </c>
       <c r="C8">
-        <v>0.2230928212405558</v>
+        <v>0.4324477382979524</v>
       </c>
       <c r="D8">
-        <v>0.5175373878271756</v>
+        <v>0.2604577201660163</v>
       </c>
       <c r="E8">
-        <v>0.1746857216922333</v>
+        <v>0.06255310787898694</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9427849381505098</v>
+        <v>0.4499717711512261</v>
       </c>
       <c r="H8">
-        <v>0.9913859949572696</v>
+        <v>0.3672662894733776</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0737665900633937</v>
+        <v>0.0302085061863</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4233349471945473</v>
+        <v>0.3746689470210782</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.911116490138369</v>
+        <v>1.670422777734387</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.02826327416949</v>
+        <v>4.338278350667224</v>
       </c>
       <c r="C9">
-        <v>0.2569758062508072</v>
+        <v>0.5339096666351395</v>
       </c>
       <c r="D9">
-        <v>0.5191455953251563</v>
+        <v>0.2980241082825472</v>
       </c>
       <c r="E9">
-        <v>0.1716858302260196</v>
+        <v>0.06186696183756268</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9259917476473163</v>
+        <v>0.4861599321057639</v>
       </c>
       <c r="H9">
-        <v>0.9710292684470545</v>
+        <v>0.364801241633657</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07265363752805243</v>
+        <v>0.02841479360969856</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4499240255853607</v>
+        <v>0.4813977247855235</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.833708764362399</v>
+        <v>1.743130208767269</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.273159735430852</v>
+        <v>5.154776925339945</v>
       </c>
       <c r="C10">
-        <v>0.2817829649070234</v>
+        <v>0.6090846716994918</v>
       </c>
       <c r="D10">
-        <v>0.5214913145313318</v>
+        <v>0.3280113064345613</v>
       </c>
       <c r="E10">
-        <v>0.1698346148322685</v>
+        <v>0.06197227665740712</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.917143365231226</v>
+        <v>0.5219416245660256</v>
       </c>
       <c r="H10">
-        <v>0.9585745649043531</v>
+        <v>0.368151759318593</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0719250060335721</v>
+        <v>0.02722555863621956</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4700972468479563</v>
+        <v>0.5615551383295383</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.789412973155748</v>
+        <v>1.82678766666487</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.384633288481552</v>
+        <v>5.528598599699308</v>
       </c>
       <c r="C11">
-        <v>0.2930474080404508</v>
+        <v>0.6434838850631479</v>
       </c>
       <c r="D11">
-        <v>0.5228107115820819</v>
+        <v>0.3422545178657685</v>
       </c>
       <c r="E11">
-        <v>0.1690688625677179</v>
+        <v>0.0621663410244544</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.9138795819521306</v>
+        <v>0.5405555122086412</v>
       </c>
       <c r="H11">
-        <v>0.9534519602173361</v>
+        <v>0.3709489734038698</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07161273302147997</v>
+        <v>0.02671329107671738</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4794117624662704</v>
+        <v>0.5985025144600087</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.772001065086926</v>
+        <v>1.872450339046935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.426853563228178</v>
+        <v>5.670568294934185</v>
       </c>
       <c r="C12">
-        <v>0.2973097878531519</v>
+        <v>0.6565446020847219</v>
       </c>
       <c r="D12">
-        <v>0.5233465566171844</v>
+        <v>0.3477420338674904</v>
       </c>
       <c r="E12">
-        <v>0.1687898597026898</v>
+        <v>0.06226209128632476</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.91275346221353</v>
+        <v>0.5479708577488651</v>
       </c>
       <c r="H12">
-        <v>0.9515902834988736</v>
+        <v>0.372205087042019</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07149723185248646</v>
+        <v>0.02652351561764199</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4829585504150344</v>
+        <v>0.6125722348784421</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.765802116040106</v>
+        <v>1.890929553556902</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.417760366598657</v>
+        <v>5.639973140865095</v>
       </c>
       <c r="C13">
-        <v>0.2963919557170698</v>
+        <v>0.6537301171057663</v>
       </c>
       <c r="D13">
-        <v>0.5232295430294585</v>
+        <v>0.3465558984924968</v>
       </c>
       <c r="E13">
-        <v>0.1688494602141066</v>
+        <v>0.06224045880856721</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.9129911036424119</v>
+        <v>0.5463570081877975</v>
       </c>
       <c r="H13">
-        <v>0.9519877527614824</v>
+        <v>0.3719255729920548</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07152198493703921</v>
+        <v>0.02656419863061288</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4821938184728509</v>
+        <v>0.6095384232612275</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.767119610049889</v>
+        <v>1.886895322325245</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.388106635204622</v>
+        <v>5.540269876892694</v>
       </c>
       <c r="C14">
-        <v>0.2933981427143522</v>
+        <v>0.6445576739882029</v>
       </c>
       <c r="D14">
-        <v>0.5228540703839855</v>
+        <v>0.3427040525499478</v>
       </c>
       <c r="E14">
-        <v>0.1690456890278664</v>
+        <v>0.06217376482294235</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9137847329527204</v>
+        <v>0.5411580441866164</v>
       </c>
       <c r="H14">
-        <v>0.9532972326026226</v>
+        <v>0.3710482860565634</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07160317561108087</v>
+        <v>0.02669759330308707</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4797031675462335</v>
+        <v>0.5996584100871019</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.771483161770021</v>
+        <v>1.873946266055668</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.369943799541829</v>
+        <v>5.479254445052106</v>
       </c>
       <c r="C15">
-        <v>0.2915639182215841</v>
+        <v>0.6389439488617086</v>
       </c>
       <c r="D15">
-        <v>0.5226287972759422</v>
+        <v>0.3403571453899161</v>
       </c>
       <c r="E15">
-        <v>0.1691673132302967</v>
+        <v>0.06213585057650661</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.9142851629537461</v>
+        <v>0.5380222315321959</v>
       </c>
       <c r="H15">
-        <v>0.954109504615559</v>
+        <v>0.3705369892258688</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07165326509021774</v>
+        <v>0.02677985199833266</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4781801161404218</v>
+        <v>0.5936171274891393</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.774207369828105</v>
+        <v>1.866172191003841</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.265875870509944</v>
+        <v>5.130400583558298</v>
       </c>
       <c r="C16">
-        <v>0.2810463714997411</v>
+        <v>0.6068411185484308</v>
       </c>
       <c r="D16">
-        <v>0.5214101605502748</v>
+        <v>0.3270932078793862</v>
       </c>
       <c r="E16">
-        <v>0.1698861943988597</v>
+        <v>0.06196263949765601</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9173720094053266</v>
+        <v>0.5207747490444206</v>
       </c>
       <c r="H16">
-        <v>0.9589202716220342</v>
+        <v>0.367995727342219</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07194579909449317</v>
+        <v>0.02725962109281177</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4694912728896554</v>
+        <v>0.5591510233094255</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.790606053530524</v>
+        <v>1.823964429364196</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.202049610652296</v>
+        <v>4.91704905940145</v>
       </c>
       <c r="C17">
-        <v>0.2745887581474733</v>
+        <v>0.5872024850909554</v>
       </c>
       <c r="D17">
-        <v>0.5207271447165738</v>
+        <v>0.319115439046783</v>
       </c>
       <c r="E17">
-        <v>0.1703467577996509</v>
+        <v>0.0618946717411859</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9194609261275986</v>
+        <v>0.5108135157717442</v>
       </c>
       <c r="H17">
-        <v>0.9620106549072034</v>
+        <v>0.3667722894626735</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07213016659250115</v>
+        <v>0.02756135447383201</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4641960487017514</v>
+        <v>0.53813719175389</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.80136805414304</v>
+        <v>1.800084094462306</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.165345054775628</v>
+        <v>4.794555717634921</v>
       </c>
       <c r="C18">
-        <v>0.2708726005736537</v>
+        <v>0.5759254946331112</v>
       </c>
       <c r="D18">
-        <v>0.5203580452797638</v>
+        <v>0.3145830163226577</v>
       </c>
       <c r="E18">
-        <v>0.1706188511508984</v>
+        <v>0.06186925561797807</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.9207340625498261</v>
+        <v>0.5053020384912088</v>
       </c>
       <c r="H18">
-        <v>0.9638392782941878</v>
+        <v>0.3661875370433876</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07223801622168224</v>
+        <v>0.02773760184309815</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4611633410971336</v>
+        <v>0.5260955046144602</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.807815783819933</v>
+        <v>1.787058670708291</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.152918728915665</v>
+        <v>4.753117535743115</v>
       </c>
       <c r="C19">
-        <v>0.2696140541178522</v>
+        <v>0.5721103404173391</v>
       </c>
       <c r="D19">
-        <v>0.5202371561699692</v>
+        <v>0.313057849097234</v>
       </c>
       <c r="E19">
-        <v>0.1707122124400744</v>
+        <v>0.06186296274971959</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.9211774203872238</v>
+        <v>0.5034724861578894</v>
       </c>
       <c r="H19">
-        <v>0.9644671967232483</v>
+        <v>0.3660095742329048</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0722748427652089</v>
+        <v>0.02779773730085289</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4601387515141937</v>
+        <v>0.522025846438595</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.810043112899479</v>
+        <v>1.782767670347852</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.208843356143973</v>
+        <v>4.939737369055422</v>
       </c>
       <c r="C20">
-        <v>0.2752763817343293</v>
+        <v>0.5892910846581856</v>
       </c>
       <c r="D20">
-        <v>0.5207973950228677</v>
+        <v>0.3199588202418937</v>
       </c>
       <c r="E20">
-        <v>0.1702969860418868</v>
+        <v>0.06190048276428328</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.9192311399002904</v>
+        <v>0.5118511334293601</v>
       </c>
       <c r="H20">
-        <v>0.9616763876206704</v>
+        <v>0.3668901204554231</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07211035347496342</v>
+        <v>0.02752895462240446</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4647583939948561</v>
+        <v>0.5403694385042286</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.800195743000586</v>
+        <v>1.802552066382873</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.39681646488873</v>
+        <v>5.569543406656805</v>
       </c>
       <c r="C21">
-        <v>0.2942775877637587</v>
+        <v>0.6472508610472403</v>
       </c>
       <c r="D21">
-        <v>0.5229633733720647</v>
+        <v>0.3438328225205822</v>
       </c>
       <c r="E21">
-        <v>0.1689877542146956</v>
+        <v>0.0621927398854254</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.9135486422119499</v>
+        <v>0.5426748980983547</v>
       </c>
       <c r="H21">
-        <v>0.9529104855056687</v>
+        <v>0.3713005079995213</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07157925338277416</v>
+        <v>0.02665829715859935</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4804342022538179</v>
+        <v>0.6025582018173736</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.770190766381603</v>
+        <v>1.877716696646132</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.519711374222254</v>
+        <v>5.983592374535419</v>
       </c>
       <c r="C22">
-        <v>0.3066770771737026</v>
+        <v>0.685334801558696</v>
       </c>
       <c r="D22">
-        <v>0.5245900416631315</v>
+        <v>0.3599871450211225</v>
       </c>
       <c r="E22">
-        <v>0.1681960369269433</v>
+        <v>0.06251415477427891</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.9104749703953274</v>
+        <v>0.5649732734474924</v>
       </c>
       <c r="H22">
-        <v>0.9476369570754457</v>
+        <v>0.3753376776589334</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0712481728853831</v>
+        <v>0.0261138475066609</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4907932995716777</v>
+        <v>0.6436647543150542</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.752880950242314</v>
+        <v>1.933813364842905</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.454116795484424</v>
+        <v>5.762360078880022</v>
       </c>
       <c r="C23">
-        <v>0.3000610564645001</v>
+        <v>0.6649880955157812</v>
       </c>
       <c r="D23">
-        <v>0.5237025661143946</v>
+        <v>0.3513122505795963</v>
       </c>
       <c r="E23">
-        <v>0.1686127445588976</v>
+        <v>0.06233024116936825</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.9120567669398127</v>
+        <v>0.5528644068587596</v>
       </c>
       <c r="H23">
-        <v>0.9504098456652059</v>
+        <v>0.3730724515407644</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07142341349889136</v>
+        <v>0.02640215413951452</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.485254086406357</v>
+        <v>0.621679899546649</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.761908804002871</v>
+        <v>1.903202528426533</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.205771934751908</v>
+        <v>4.929479474449408</v>
       </c>
       <c r="C24">
-        <v>0.2749655182712161</v>
+        <v>0.5883467870854702</v>
       </c>
       <c r="D24">
-        <v>0.5207655614205891</v>
+        <v>0.3195773596358435</v>
       </c>
       <c r="E24">
-        <v>0.1703194650847628</v>
+        <v>0.06189781314766307</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.9193348014067482</v>
+        <v>0.5113813579515352</v>
       </c>
       <c r="H24">
-        <v>0.9618273481301998</v>
+        <v>0.3668364806248832</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07211930520854715</v>
+        <v>0.02754359395194683</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4645041215809442</v>
+        <v>0.5393601175621683</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.800724933435049</v>
+        <v>1.801434111427</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.938153237023187</v>
+        <v>4.039295691603229</v>
       </c>
       <c r="C25">
-        <v>0.2478239885094808</v>
+        <v>0.5063705999103547</v>
       </c>
       <c r="D25">
-        <v>0.5185058942153091</v>
+        <v>0.2874686354952871</v>
       </c>
       <c r="E25">
-        <v>0.1724353567655914</v>
+        <v>0.06194998280046882</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.9299232195822924</v>
+        <v>0.4748637003640113</v>
       </c>
       <c r="H25">
-        <v>0.9760970936162607</v>
+        <v>0.3646101847440804</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07293903516632305</v>
+        <v>0.02887771722480892</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.442618369632342</v>
+        <v>0.4522512035496931</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.852444053325144</v>
+        <v>1.718481709901255</v>
       </c>
     </row>
   </sheetData>
